--- a/2022/Realme/February/17.02.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/February/17.02.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FEB-2022" sheetId="7" r:id="rId1"/>
@@ -37,6 +37,20 @@
     <author>8801715116767</author>
   </authors>
   <commentList>
+    <comment ref="D16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>courier servicing phone</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D19" authorId="0" shapeId="0">
       <text>
         <r>
@@ -395,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -704,6 +718,13 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2516,6 +2537,18 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2543,12 +2576,6 @@
     <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2559,12 +2586,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4107,9 +4128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4126,67 +4147,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="261"/>
-      <c r="K1" s="261"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="261"/>
-      <c r="N1" s="261"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="261"/>
-      <c r="Q1" s="261"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="265"/>
+      <c r="K1" s="265"/>
+      <c r="L1" s="265"/>
+      <c r="M1" s="265"/>
+      <c r="N1" s="265"/>
+      <c r="O1" s="265"/>
+      <c r="P1" s="265"/>
+      <c r="Q1" s="265"/>
     </row>
     <row r="2" spans="1:24" s="94" customFormat="1" ht="18">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="266" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="262"/>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="266"/>
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
     </row>
     <row r="3" spans="1:24" s="95" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="267" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="264"/>
-      <c r="C3" s="264"/>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
-      <c r="P3" s="264"/>
-      <c r="Q3" s="265"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
+      <c r="L3" s="268"/>
+      <c r="M3" s="268"/>
+      <c r="N3" s="268"/>
+      <c r="O3" s="268"/>
+      <c r="P3" s="268"/>
+      <c r="Q3" s="269"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4195,52 +4216,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="97" customFormat="1">
-      <c r="A4" s="266" t="s">
+      <c r="A4" s="270" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="268" t="s">
+      <c r="B4" s="272" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="270" t="s">
+      <c r="C4" s="261" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="270" t="s">
+      <c r="D4" s="261" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="270" t="s">
+      <c r="E4" s="261" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="270" t="s">
+      <c r="F4" s="261" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="270" t="s">
+      <c r="G4" s="261" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="270" t="s">
+      <c r="H4" s="261" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="270" t="s">
+      <c r="I4" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="270" t="s">
+      <c r="J4" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="270" t="s">
+      <c r="K4" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="270" t="s">
+      <c r="L4" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="270" t="s">
+      <c r="M4" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="276" t="s">
+      <c r="N4" s="263" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="274" t="s">
+      <c r="O4" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="272" t="s">
+      <c r="P4" s="274" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -4253,22 +4274,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="97" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="267"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="271"/>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="271"/>
-      <c r="J5" s="271"/>
-      <c r="K5" s="271"/>
-      <c r="L5" s="271"/>
-      <c r="M5" s="271"/>
-      <c r="N5" s="277"/>
-      <c r="O5" s="275"/>
-      <c r="P5" s="273"/>
+      <c r="A5" s="271"/>
+      <c r="B5" s="273"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="262"/>
+      <c r="L5" s="262"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="264"/>
+      <c r="O5" s="277"/>
+      <c r="P5" s="275"/>
       <c r="Q5" s="101" t="s">
         <v>36</v>
       </c>
@@ -4653,7 +4674,9 @@
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="106"/>
-      <c r="D16" s="114"/>
+      <c r="D16" s="114">
+        <v>85</v>
+      </c>
       <c r="E16" s="114"/>
       <c r="F16" s="114"/>
       <c r="G16" s="114">
@@ -4674,7 +4697,7 @@
       <c r="P16" s="116"/>
       <c r="Q16" s="110">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="R16" s="111"/>
       <c r="S16" s="4"/>
@@ -5232,7 +5255,7 @@
       </c>
       <c r="D37" s="132">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="E37" s="132">
         <f t="shared" si="1"/>
@@ -5284,7 +5307,7 @@
       </c>
       <c r="Q37" s="134">
         <f>SUM(Q6:Q36)</f>
-        <v>13598</v>
+        <v>13683</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7286,6 +7309,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7302,9 +7328,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7316,7 +7339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -16469,7 +16492,7 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
